--- a/examples/BaangtDBFill.xlsx
+++ b/examples/BaangtDBFill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C350C5FC-C1B1-004D-8C5F-87020F0BCDDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363D91F-0A01-374A-A151-6CE9001149BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="1360" windowWidth="18840" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13460" yWindow="1160" windowWidth="18840" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="70">
   <si>
     <t>Activity</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>GOTOURL</t>
-  </si>
-  <si>
-    <t>xpath</t>
   </si>
   <si>
     <t>click</t>
@@ -643,12 +640,13 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -684,164 +682,127 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
+        <v>39</v>
+      </c>
+      <c r="D5">
         <v>12345</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -849,13 +810,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -882,30 +840,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="str">
         <f>"GES_"&amp;(C2)&amp;"_PROD_"&amp;D2 &amp; "_" &amp; "_" &amp; E2 &amp; "_" &amp; F2</f>
@@ -915,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="str">
         <f>B2&amp;" " &amp;E2 &amp; " " &amp;F2</f>
@@ -930,7 +888,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B55" si="0">"GES_"&amp;(C3)&amp;"_PROD_"&amp;D3 &amp; "_" &amp; "_" &amp; E3 &amp; "_" &amp; F3</f>
@@ -940,13 +898,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G55" si="1">B3&amp;" " &amp;E3 &amp; " " &amp;F3</f>
@@ -955,7 +913,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -965,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
@@ -980,7 +938,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -990,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
@@ -1005,7 +963,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1015,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
@@ -1030,7 +988,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1040,13 +998,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -1055,7 +1013,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1065,13 +1023,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -1080,7 +1038,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1090,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -1105,7 +1063,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1115,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -1130,7 +1088,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1140,13 +1098,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -1155,7 +1113,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1165,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -1180,7 +1138,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1190,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -1205,7 +1163,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1215,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -1230,7 +1188,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1240,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -1255,7 +1213,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1265,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -1280,7 +1238,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1290,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -1305,7 +1263,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1315,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -1330,7 +1288,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1340,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
@@ -1355,7 +1313,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1365,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
@@ -1380,7 +1338,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1390,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
@@ -1405,7 +1363,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1415,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
@@ -1430,7 +1388,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1440,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
@@ -1455,7 +1413,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1465,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
@@ -1480,7 +1438,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1490,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1505,7 +1463,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1515,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
@@ -1530,7 +1488,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1540,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
@@ -1555,7 +1513,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -1565,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
@@ -1580,23 +1538,23 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>GES_1_PROD_Fritzi__Name_SETTEXT</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>GES_1_PROD_Fritzi__Name_SETTEXT</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
@@ -1605,7 +1563,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -1615,13 +1573,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
@@ -1630,7 +1588,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -1640,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
@@ -1655,7 +1613,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -1665,13 +1623,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
@@ -1680,7 +1638,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -1690,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
@@ -1705,7 +1663,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -1715,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
@@ -1730,7 +1688,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -1740,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
@@ -1755,7 +1713,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -1765,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
@@ -1780,7 +1738,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -1790,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
@@ -1805,7 +1763,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -1815,13 +1773,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
@@ -1830,7 +1788,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -1840,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
@@ -1855,7 +1813,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -1865,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
@@ -1880,7 +1838,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -1890,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
@@ -1905,7 +1863,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -1915,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -1930,7 +1888,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -1940,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
@@ -1955,7 +1913,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -1965,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
@@ -1980,7 +1938,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -1990,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
@@ -2005,7 +1963,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -2015,13 +1973,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
@@ -2030,7 +1988,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -2040,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
@@ -2055,7 +2013,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
@@ -2065,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
@@ -2080,7 +2038,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
@@ -2090,13 +2048,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
@@ -2105,7 +2063,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
@@ -2115,13 +2073,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
@@ -2130,7 +2088,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -2140,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
@@ -2155,7 +2113,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -2165,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
@@ -2180,7 +2138,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -2190,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
@@ -2205,7 +2163,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
@@ -2215,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
@@ -2230,7 +2188,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -2240,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>

--- a/examples/BaangtDBFill.xlsx
+++ b/examples/BaangtDBFill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363D91F-0A01-374A-A151-6CE9001149BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF10023-5A3C-A743-AA14-E784834A85C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="1160" windowWidth="18840" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22120" yWindow="1760" windowWidth="18840" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>//a[contains(.,'+ new Test Step')]</t>
-  </si>
-  <si>
     <t>//input[contains(@name,'name')]</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>//*[@id="description"]</t>
+  </si>
+  <si>
+    <t>//a[contains(.,'+ create Test Step')]</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,42 +688,42 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>12345</v>
@@ -734,12 +734,12 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -756,29 +756,29 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -794,15 +794,15 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -846,19 +846,19 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -873,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="str">
         <f>B2&amp;" " &amp;E2 &amp; " " &amp;F2</f>
@@ -898,13 +898,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G55" si="1">B3&amp;" " &amp;E3 &amp; " " &amp;F3</f>
@@ -923,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
@@ -973,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
@@ -998,13 +998,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -1023,13 +1023,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -1048,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -1073,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -1098,13 +1098,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -1123,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -1148,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -1173,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -1198,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -1223,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -1248,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -1273,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -1298,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
@@ -1323,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
@@ -1348,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
@@ -1373,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
@@ -1398,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
@@ -1423,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
@@ -1448,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
@@ -1498,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
@@ -1523,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
@@ -1548,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
@@ -1573,13 +1573,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
@@ -1598,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
@@ -1623,13 +1623,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
@@ -1648,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
@@ -1673,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
@@ -1698,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
@@ -1723,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
@@ -1748,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
@@ -1773,13 +1773,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
@@ -1798,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
@@ -1823,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
@@ -1873,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -1898,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
@@ -1923,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
@@ -1948,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
@@ -1973,13 +1973,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
@@ -1998,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
@@ -2023,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
@@ -2048,13 +2048,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
@@ -2073,13 +2073,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
@@ -2098,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
@@ -2123,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
@@ -2148,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
@@ -2173,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
@@ -2198,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
